--- a/consumption_tables/Total energy consumption._              Billion Btu/Solar energy, total consumed._                  Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Solar energy, total consumed._                  Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>StateCode</t>
   </si>
@@ -56,154 +56,595 @@
     <t>AL</t>
   </si>
   <si>
+    <t>0.008285596091600267%</t>
+  </si>
+  <si>
+    <t>0.005289179334076612%</t>
+  </si>
+  <si>
+    <t>-0.002996416757523655%</t>
+  </si>
+  <si>
     <t>AR</t>
   </si>
   <si>
+    <t>0.1496643942447556%</t>
+  </si>
+  <si>
+    <t>0.011747964475671292%</t>
+  </si>
+  <si>
+    <t>-0.13791642976908433%</t>
+  </si>
+  <si>
     <t>AZ</t>
   </si>
   <si>
+    <t>0.38544654392162836%</t>
+  </si>
+  <si>
+    <t>3.348582469304371%</t>
+  </si>
+  <si>
+    <t>2.9631359253827423%</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
+    <t>0.29588373860366085%</t>
+  </si>
+  <si>
+    <t>2.758645396113252%</t>
+  </si>
+  <si>
+    <t>2.462761657509591%</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
+    <t>0.01650745193544514%</t>
+  </si>
+  <si>
+    <t>0.42351612286493895%</t>
+  </si>
+  <si>
+    <t>0.40700867092949383%</t>
+  </si>
+  <si>
     <t>CT</t>
   </si>
   <si>
+    <t>0.00859056209609715%</t>
+  </si>
+  <si>
+    <t>0.392228865809298%</t>
+  </si>
+  <si>
+    <t>0.38363830371320085%</t>
+  </si>
+  <si>
     <t>DE</t>
   </si>
   <si>
+    <t>0.011352781823021876%</t>
+  </si>
+  <si>
+    <t>0.44242217146556845%</t>
+  </si>
+  <si>
+    <t>0.4310693896425466%</t>
+  </si>
+  <si>
     <t>FL</t>
   </si>
   <si>
+    <t>0.7797957790932192%</t>
+  </si>
+  <si>
+    <t>0.7077123649861671%</t>
+  </si>
+  <si>
+    <t>-0.0720834141070521%</t>
+  </si>
+  <si>
     <t>GA</t>
   </si>
   <si>
+    <t>0.004709149473786183%</t>
+  </si>
+  <si>
+    <t>0.08624390435519441%</t>
+  </si>
+  <si>
+    <t>0.08153475488140823%</t>
+  </si>
+  <si>
     <t>HI</t>
   </si>
   <si>
+    <t>0.2753398191157392%</t>
+  </si>
+  <si>
+    <t>2.956964499429923%</t>
+  </si>
+  <si>
+    <t>2.681624680314184%</t>
+  </si>
+  <si>
     <t>IA</t>
   </si>
   <si>
+    <t>0.0009515039577278508%</t>
+  </si>
+  <si>
+    <t>0.02803050575327803%</t>
+  </si>
+  <si>
+    <t>0.02707900179555018%</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>0.0004933228748883857%</t>
+  </si>
+  <si>
+    <t>0.015447314169764076%</t>
+  </si>
+  <si>
+    <t>0.01495399129487569%</t>
+  </si>
+  <si>
     <t>IL</t>
   </si>
   <si>
+    <t>0.0014799611859236143%</t>
+  </si>
+  <si>
+    <t>0.04900145584035468%</t>
+  </si>
+  <si>
+    <t>0.04752149465443107%</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
+    <t>0.0005215841553967711%</t>
+  </si>
+  <si>
+    <t>0.0601819793441956%</t>
+  </si>
+  <si>
+    <t>0.05966039518879883%</t>
+  </si>
+  <si>
     <t>KS</t>
   </si>
   <si>
+    <t>0.0033756698594877422%</t>
+  </si>
+  <si>
+    <t>0.008035979017781683%</t>
+  </si>
+  <si>
+    <t>0.00466030915829394%</t>
+  </si>
+  <si>
     <t>KY</t>
   </si>
   <si>
+    <t>0.0002050857155748245%</t>
+  </si>
+  <si>
+    <t>0.011417139386464954%</t>
+  </si>
+  <si>
+    <t>0.01121205367089013%</t>
+  </si>
+  <si>
     <t>LA</t>
   </si>
   <si>
+    <t>0.0016587569016598195%</t>
+  </si>
+  <si>
+    <t>0.03568998365304828%</t>
+  </si>
+  <si>
+    <t>0.034031226751388456%</t>
+  </si>
+  <si>
     <t>MA</t>
   </si>
   <si>
+    <t>0.013718669189574949%</t>
+  </si>
+  <si>
+    <t>0.8674894920542419%</t>
+  </si>
+  <si>
+    <t>0.8537708228646669%</t>
+  </si>
+  <si>
     <t>MD</t>
   </si>
   <si>
+    <t>0.003230974485546118%</t>
+  </si>
+  <si>
+    <t>0.3126192419108431%</t>
+  </si>
+  <si>
+    <t>0.309388267425297%</t>
+  </si>
+  <si>
     <t>ME</t>
   </si>
   <si>
+    <t>0.01858849874910338%</t>
+  </si>
+  <si>
+    <t>0.07937897048926536%</t>
+  </si>
+  <si>
+    <t>0.06079047174016198%</t>
+  </si>
+  <si>
     <t>MI</t>
   </si>
   <si>
+    <t>0.007863311978294476%</t>
+  </si>
+  <si>
+    <t>0.030751463133657203%</t>
+  </si>
+  <si>
+    <t>0.022888151155362725%</t>
+  </si>
+  <si>
     <t>MN</t>
   </si>
   <si>
+    <t>0.024125383472256526%</t>
+  </si>
+  <si>
+    <t>0.026667856926947585%</t>
+  </si>
+  <si>
+    <t>0.002542473454691059%</t>
+  </si>
+  <si>
     <t>MO</t>
   </si>
   <si>
+    <t>0.010986359390102032%</t>
+  </si>
+  <si>
+    <t>0.0844117453852723%</t>
+  </si>
+  <si>
+    <t>0.07342538599517026%</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
+    <t>0.00038872276389659586%</t>
+  </si>
+  <si>
+    <t>0.002560276863042845%</t>
+  </si>
+  <si>
+    <t>0.002171554099146249%</t>
+  </si>
+  <si>
     <t>MT</t>
   </si>
   <si>
+    <t>0.0002877275565312717%</t>
+  </si>
+  <si>
+    <t>0.021715027309840228%</t>
+  </si>
+  <si>
+    <t>0.021427299753308957%</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
+    <t>0.007832045910382909%</t>
+  </si>
+  <si>
+    <t>0.549546126173318%</t>
+  </si>
+  <si>
+    <t>0.5417140802629351%</t>
+  </si>
+  <si>
     <t>ND</t>
   </si>
   <si>
     <t>inf</t>
   </si>
   <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>0.0011521438928967036%</t>
+  </si>
+  <si>
     <t>NE</t>
   </si>
   <si>
+    <t>0.0017126448374224312%</t>
+  </si>
+  <si>
+    <t>0.004805883338940197%</t>
+  </si>
+  <si>
+    <t>0.0030932385015177656%</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
+    <t>0.010095156194500009%</t>
+  </si>
+  <si>
+    <t>0.0956705786759454%</t>
+  </si>
+  <si>
+    <t>0.0855754224814454%</t>
+  </si>
+  <si>
     <t>NJ</t>
   </si>
   <si>
+    <t>0.0177661098319611%</t>
+  </si>
+  <si>
+    <t>0.9161354453669328%</t>
+  </si>
+  <si>
+    <t>0.8983693355349717%</t>
+  </si>
+  <si>
     <t>NM</t>
   </si>
   <si>
+    <t>0.09607017649751275%</t>
+  </si>
+  <si>
+    <t>1.0740766508229507%</t>
+  </si>
+  <si>
+    <t>0.978006474325438%</t>
+  </si>
+  <si>
     <t>NV</t>
   </si>
   <si>
+    <t>0.01538171461461362%</t>
+  </si>
+  <si>
+    <t>2.803839036361229%</t>
+  </si>
+  <si>
+    <t>2.7884573217466153%</t>
+  </si>
+  <si>
     <t>NY</t>
   </si>
   <si>
+    <t>0.0073886225385647285%</t>
+  </si>
+  <si>
+    <t>0.20735825104873923%</t>
+  </si>
+  <si>
+    <t>0.1999696285101745%</t>
+  </si>
+  <si>
     <t>OH</t>
   </si>
   <si>
+    <t>0.0005038809440713368%</t>
+  </si>
+  <si>
+    <t>0.04482941964747556%</t>
+  </si>
+  <si>
+    <t>0.04432553870340422%</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>0.006436006927746782%</t>
+  </si>
+  <si>
+    <t>0.0043535045711798%</t>
+  </si>
+  <si>
+    <t>-0.0020825023565669825%</t>
+  </si>
+  <si>
     <t>OR</t>
   </si>
   <si>
+    <t>0.03209990635823495%</t>
+  </si>
+  <si>
+    <t>0.2533730814096909%</t>
+  </si>
+  <si>
+    <t>0.22127317505145594%</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
+    <t>0.01223844786778736%</t>
+  </si>
+  <si>
+    <t>0.09674429054101057%</t>
+  </si>
+  <si>
+    <t>0.08450584267322321%</t>
+  </si>
+  <si>
     <t>RI</t>
   </si>
   <si>
+    <t>0.017865034366684532%</t>
+  </si>
+  <si>
+    <t>0.14654942712496669%</t>
+  </si>
+  <si>
+    <t>0.12868439275828214%</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
+    <t>0.0011876851304197043%</t>
+  </si>
+  <si>
+    <t>0.008492630822911662%</t>
+  </si>
+  <si>
+    <t>0.007304945692491957%</t>
+  </si>
+  <si>
     <t>SD</t>
   </si>
   <si>
+    <t>0.0026075687289927748%</t>
+  </si>
+  <si>
     <t>TN</t>
   </si>
   <si>
+    <t>0.00334813581378115%</t>
+  </si>
+  <si>
+    <t>0.05965530032498989%</t>
+  </si>
+  <si>
+    <t>0.05630716451120874%</t>
+  </si>
+  <si>
     <t>TX</t>
   </si>
   <si>
+    <t>0.0036291825479792005%</t>
+  </si>
+  <si>
+    <t>0.049582841220080595%</t>
+  </si>
+  <si>
+    <t>0.0459536586721014%</t>
+  </si>
+  <si>
     <t>UT</t>
   </si>
   <si>
+    <t>0.007464678076427107%</t>
+  </si>
+  <si>
+    <t>0.12389051618098634%</t>
+  </si>
+  <si>
+    <t>0.11642583810455924%</t>
+  </si>
+  <si>
     <t>VA</t>
   </si>
   <si>
+    <t>0.006467438990916558%</t>
+  </si>
+  <si>
+    <t>0.03383031373498067%</t>
+  </si>
+  <si>
+    <t>0.02736287474406411%</t>
+  </si>
+  <si>
     <t>VT</t>
   </si>
   <si>
+    <t>0.00475631797571107%</t>
+  </si>
+  <si>
+    <t>0.7909090909090909%</t>
+  </si>
+  <si>
+    <t>0.7861527729333798%</t>
+  </si>
+  <si>
     <t>WA</t>
   </si>
   <si>
+    <t>0.017786203964759863%</t>
+  </si>
+  <si>
+    <t>0.03258911463221072%</t>
+  </si>
+  <si>
+    <t>0.014802910667450854%</t>
+  </si>
+  <si>
     <t>WI</t>
   </si>
   <si>
+    <t>0.01373952950193532%</t>
+  </si>
+  <si>
+    <t>0.028375406629711074%</t>
+  </si>
+  <si>
+    <t>0.014635877127775754%</t>
+  </si>
+  <si>
     <t>WV</t>
   </si>
   <si>
+    <t>0.004542060903359138%</t>
+  </si>
+  <si>
+    <t>0.012001316273397728%</t>
+  </si>
+  <si>
+    <t>0.00745925537003859%</t>
+  </si>
+  <si>
     <t>WY</t>
   </si>
   <si>
+    <t>0.0005007122631943941%</t>
+  </si>
+  <si>
+    <t>0.005155032839468459%</t>
+  </si>
+  <si>
+    <t>0.004654320576274065%</t>
+  </si>
+  <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>0.06952878427294779%</t>
+  </si>
+  <si>
+    <t>0.4385177476383179%</t>
+  </si>
+  <si>
+    <t>0.3689889633653701%</t>
   </si>
 </sst>
 </file>
@@ -634,14 +1075,14 @@
       <c r="G2" s="2" t="n">
         <v>4854000</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>8.285596091600267e-05</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>5.289179334076611e-05</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>-2.996416757523656e-05</v>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>3.407407407407408e-05</v>
@@ -658,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1281</v>
@@ -675,14 +1116,14 @@
       <c r="G3" s="2" t="n">
         <v>2978000</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0.001496643942447556</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0.0001174796447567129</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>-0.001379164297690843</v>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>0.0005434874840899448</v>
@@ -699,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3619</v>
@@ -716,14 +1157,14 @@
       <c r="G4" s="2" t="n">
         <v>6818000</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0.003854465439216284</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.03348582469304371</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.02963135925382743</v>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0.000982356134636265</v>
@@ -740,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>22029</v>
@@ -757,14 +1198,14 @@
       <c r="G5" s="2" t="n">
         <v>38994000</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0.002958837386036609</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.02758645396113252</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0.02462761657509591</v>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>0.0007352803738317757</v>
@@ -781,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>154</v>
@@ -798,14 +1239,14 @@
       <c r="G6" s="2" t="n">
         <v>5449000</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0.0001650745193544514</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.00423516122864939</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0.004070086709294938</v>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>4.655380894800483e-05</v>
@@ -822,7 +1263,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>66</v>
@@ -839,14 +1280,14 @@
       <c r="G7" s="2" t="n">
         <v>3585000</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>8.590562096097151e-05</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.00392228865809298</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.003836383037132008</v>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>2.004860267314702e-05</v>
@@ -863,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>29</v>
@@ -880,14 +1321,14 @@
       <c r="G8" s="2" t="n">
         <v>944000</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>0.0001135278182302188</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0.004424221714655684</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0.004310693896425466</v>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>4.328358208955224e-05</v>
@@ -904,7 +1345,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>25584</v>
@@ -921,14 +1362,14 @@
       <c r="G9" s="2" t="n">
         <v>20245000</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>0.007797957790932192</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0.007077123649861671</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>-0.0007208341410705208</v>
+      <c r="H9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K9" s="4" t="n">
         <v>0.001963016956955421</v>
@@ -945,7 +1386,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>105</v>
@@ -962,14 +1403,14 @@
       <c r="G10" s="2" t="n">
         <v>10199000</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>4.709149473786183e-05</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0.0008624390435519442</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>0.0008153475488140823</v>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1.612160294795025e-05</v>
@@ -986,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>885</v>
@@ -1003,14 +1444,14 @@
       <c r="G11" s="2" t="n">
         <v>1425000</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0.002753398191157392</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.02956964499429923</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0.02681624680314184</v>
+      <c r="H11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>0.0007951482479784367</v>
@@ -1027,7 +1468,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>9</v>
@@ -1044,14 +1485,14 @@
       <c r="G12" s="2" t="n">
         <v>3122000</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>9.515039577278508e-06</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0.0002803050575327803</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>0.0002707900179555018</v>
+      <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>3.236245954692557e-06</v>
@@ -1068,7 +1509,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2</v>
@@ -1085,14 +1526,14 @@
       <c r="G13" s="2" t="n">
         <v>1653000</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>4.933228748883857e-06</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0.0001544731416976408</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0.0001495399129487569</v>
+      <c r="H13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1.976284584980237e-06</v>
@@ -1109,7 +1550,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>53</v>
@@ -1126,14 +1567,14 @@
       <c r="G14" s="2" t="n">
         <v>12839000</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>1.479961185923614e-05</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0.0004900145584035468</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>0.0004752149465443107</v>
+      <c r="H14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>4.627608486859338e-06</v>
@@ -1150,7 +1591,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>13</v>
@@ -1167,14 +1608,14 @@
       <c r="G15" s="2" t="n">
         <v>6613000</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>5.215841553967711e-06</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0.000601819793441956</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>0.0005966039518879883</v>
+      <c r="H15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>2.338970852824757e-06</v>
@@ -1191,7 +1632,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>36</v>
@@ -1208,14 +1649,14 @@
       <c r="G16" s="2" t="n">
         <v>2907000</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>3.375669859487742e-05</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>8.035979017781682e-05</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>4.66030915829394e-05</v>
+      <c r="H16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1.451027811366384e-05</v>
@@ -1232,7 +1673,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3</v>
@@ -1249,14 +1690,14 @@
       <c r="G17" s="2" t="n">
         <v>4425000</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>2.050857155748245e-06</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.0001141713938646495</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0.0001121205367089013</v>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>8.121277747698971e-07</v>
@@ -1273,7 +1714,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>64</v>
@@ -1290,14 +1731,14 @@
       <c r="G18" s="2" t="n">
         <v>4669000</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>1.65875690165982e-05</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0.0003568998365304828</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0.0003403122675138846</v>
+      <c r="H18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1.515869256276646e-05</v>
@@ -1314,7 +1755,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>193</v>
@@ -1331,14 +1772,14 @@
       <c r="G19" s="2" t="n">
         <v>6784000</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>0.0001371866918957495</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0.008674894920542419</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>0.008537708228646669</v>
+      <c r="H19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>3.204383197741989e-05</v>
@@ -1355,7 +1796,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>41</v>
@@ -1372,14 +1813,14 @@
       <c r="G20" s="2" t="n">
         <v>5995000</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>3.230974485546118e-05</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0.003126192419108431</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>0.00309388267425297</v>
+      <c r="H20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>8.541666666666666e-06</v>
@@ -1396,7 +1837,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>85</v>
@@ -1413,14 +1854,14 @@
       <c r="G21" s="2" t="n">
         <v>1329000</v>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>0.0001858849874910338</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0.0007937897048926535</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>0.0006079047174016197</v>
+      <c r="H21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="K21" s="2" t="n">
         <v>6.89935064935065e-05</v>
@@ -1437,7 +1878,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>226</v>
@@ -1454,14 +1895,14 @@
       <c r="G22" s="2" t="n">
         <v>9918000</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>7.863311978294476e-05</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0.000307514631336572</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>0.0002288815115536273</v>
+      <c r="H22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>2.427236601868757e-05</v>
@@ -1478,7 +1919,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>338</v>
@@ -1495,14 +1936,14 @@
       <c r="G23" s="2" t="n">
         <v>5482000</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>0.0002412538347225652</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0.0002666785692694759</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>2.542473454691062e-05</v>
+      <c r="H23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="K23" s="2" t="n">
         <v>7.699316628701595e-05</v>
@@ -1519,7 +1960,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>163</v>
@@ -1536,14 +1977,14 @@
       <c r="G24" s="2" t="n">
         <v>6076000</v>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>0.0001098635939010203</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0.0008441174538527229</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>0.0007342538599517025</v>
+      <c r="H24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>3.178007408851628e-05</v>
@@ -1560,7 +2001,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4</v>
@@ -1577,14 +2018,14 @@
       <c r="G25" s="2" t="n">
         <v>2989000</v>
       </c>
-      <c r="H25" s="2" t="n">
-        <v>3.887227638965958e-06</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>2.560276863042845e-05</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>2.171554099146249e-05</v>
+      <c r="H25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="K25" s="2" t="n">
         <v>1.550988755331524e-06</v>
@@ -1601,7 +2042,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -1618,14 +2059,14 @@
       <c r="G26" s="2" t="n">
         <v>1032000</v>
       </c>
-      <c r="H26" s="2" t="n">
-        <v>2.877275565312717e-06</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0.0002171502730984023</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>0.0002142729975330896</v>
+      <c r="H26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>1.25e-06</v>
@@ -1642,7 +2083,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>161</v>
@@ -1659,14 +2100,14 @@
       <c r="G27" s="2" t="n">
         <v>10035000</v>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>7.832045910382909e-05</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0.00549546126173318</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>0.005417140802629351</v>
+      <c r="H27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>2.415966386554622e-05</v>
@@ -1683,7 +2124,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>0</v>
@@ -1692,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>638000</v>
@@ -1700,14 +2141,14 @@
       <c r="G28" s="2" t="n">
         <v>757000</v>
       </c>
-      <c r="H28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>1.152143892896704e-05</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>1.152143892896704e-05</v>
+      <c r="H28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>0</v>
@@ -1724,7 +2165,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>9</v>
@@ -1741,14 +2182,14 @@
       <c r="G29" s="2" t="n">
         <v>2884000</v>
       </c>
-      <c r="H29" s="2" t="n">
-        <v>1.712644837422431e-05</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>4.805883338940197e-05</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>3.093238501517765e-05</v>
+      <c r="H29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>7.371007371007371e-06</v>
@@ -1765,7 +2206,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>27</v>
@@ -1782,14 +2223,14 @@
       <c r="G30" s="2" t="n">
         <v>1330000</v>
       </c>
-      <c r="H30" s="2" t="n">
-        <v>0.0001009515619450001</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0.000956705786759454</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>0.0008557542248144539</v>
+      <c r="H30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>2.428057553956835e-05</v>
@@ -1806,7 +2247,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>399</v>
@@ -1823,14 +2264,14 @@
       <c r="G31" s="2" t="n">
         <v>8935000</v>
       </c>
-      <c r="H31" s="2" t="n">
-        <v>0.000177661098319611</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0.009161354453669328</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>0.008983693355349718</v>
+      <c r="H31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>5.139765554553652e-05</v>
@@ -1847,7 +2288,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>573</v>
@@ -1864,14 +2305,14 @@
       <c r="G32" s="2" t="n">
         <v>2080000</v>
       </c>
-      <c r="H32" s="2" t="n">
-        <v>0.0009607017649751274</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0.01074076650822951</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>0.009780064743254378</v>
+      <c r="H32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>0.0003764783180026281</v>
@@ -1888,7 +2329,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>62</v>
@@ -1905,14 +2346,14 @@
       <c r="G33" s="2" t="n">
         <v>1894000</v>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>0.0001538171461461362</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>0.02803839036361229</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>0.02788457321746615</v>
+      <c r="H33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>3.919089759797724e-05</v>
@@ -1929,7 +2370,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>276</v>
@@ -1946,14 +2387,14 @@
       <c r="G34" s="2" t="n">
         <v>19747000</v>
       </c>
-      <c r="H34" s="2" t="n">
-        <v>7.388622538564728e-05</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0.002073582510487392</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>0.001999696285101745</v>
+      <c r="H34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>1.531546529049442e-05</v>
@@ -1970,7 +2411,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>19</v>
@@ -1987,14 +2428,14 @@
       <c r="G35" s="2" t="n">
         <v>11605000</v>
       </c>
-      <c r="H35" s="2" t="n">
-        <v>5.038809440713368e-06</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>0.0004482941964747556</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>0.0004432553870340422</v>
+      <c r="H35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>1.748895434462445e-06</v>
@@ -2011,7 +2452,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>89</v>
@@ -2028,14 +2469,14 @@
       <c r="G36" s="2" t="n">
         <v>3907000</v>
       </c>
-      <c r="H36" s="2" t="n">
-        <v>6.436006927746782e-05</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>4.3535045711798e-05</v>
-      </c>
-      <c r="J36" s="3" t="n">
-        <v>-2.082502356566983e-05</v>
+      <c r="H36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>2.826294061606859e-05</v>
@@ -2052,7 +2493,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>314</v>
@@ -2069,14 +2510,14 @@
       <c r="G37" s="2" t="n">
         <v>4025000</v>
       </c>
-      <c r="H37" s="2" t="n">
-        <v>0.0003209990635823495</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.002533730814096909</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.002212731750514559</v>
+      <c r="H37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>0.0001097902097902098</v>
@@ -2093,7 +2534,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>445</v>
@@ -2110,14 +2551,14 @@
       <c r="G38" s="2" t="n">
         <v>12792000</v>
       </c>
-      <c r="H38" s="2" t="n">
-        <v>0.0001223844786778736</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0.0009674429054101056</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>0.000845058426732232</v>
+      <c r="H38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>3.738553305889272e-05</v>
@@ -2134,7 +2575,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>38</v>
@@ -2151,14 +2592,14 @@
       <c r="G39" s="2" t="n">
         <v>1056000</v>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>0.0001786503436668453</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0.001465494271249667</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>0.001286843927582822</v>
+      <c r="H39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>3.777335984095427e-05</v>
@@ -2175,7 +2616,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>15</v>
@@ -2192,14 +2633,14 @@
       <c r="G40" s="2" t="n">
         <v>4895000</v>
       </c>
-      <c r="H40" s="2" t="n">
-        <v>1.187685130419704e-05</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>8.492630822911662e-05</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>7.304945692491958e-05</v>
+      <c r="H40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>4.284490145672665e-06</v>
@@ -2216,7 +2657,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>0</v>
@@ -2225,7 +2666,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>697000</v>
@@ -2233,14 +2674,14 @@
       <c r="G41" s="2" t="n">
         <v>858000</v>
       </c>
-      <c r="H41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>2.607568728992775e-05</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>2.607568728992775e-05</v>
+      <c r="H41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>0</v>
@@ -2257,7 +2698,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>60</v>
@@ -2274,14 +2715,14 @@
       <c r="G42" s="2" t="n">
         <v>6595000</v>
       </c>
-      <c r="H42" s="2" t="n">
-        <v>3.34813581378115e-05</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0.0005965530032498989</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>0.0005630716451120874</v>
+      <c r="H42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>1.225991009399264e-05</v>
@@ -2298,7 +2739,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>374</v>
@@ -2315,14 +2756,14 @@
       <c r="G43" s="2" t="n">
         <v>27430000</v>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>3.629182547979201e-05</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0.000495828412200806</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>0.000459536586721014</v>
+      <c r="H43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>2.192648179632995e-05</v>
@@ -2339,7 +2780,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>40</v>
@@ -2356,14 +2797,14 @@
       <c r="G44" s="2" t="n">
         <v>2991000</v>
       </c>
-      <c r="H44" s="2" t="n">
-        <v>7.464678076427107e-05</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0.001238905161809863</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>0.001164258381045592</v>
+      <c r="H44" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>2.310803004043905e-05</v>
@@ -2380,7 +2821,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>127</v>
@@ -2397,14 +2838,14 @@
       <c r="G45" s="2" t="n">
         <v>8368000</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>6.467438990916558e-05</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0.0003383031373498067</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <v>0.0002736287474406411</v>
+      <c r="H45" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>2.042785909602702e-05</v>
@@ -2421,7 +2862,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>6</v>
@@ -2438,14 +2879,14 @@
       <c r="G46" s="2" t="n">
         <v>626000</v>
       </c>
-      <c r="H46" s="2" t="n">
-        <v>4.75631797571107e-05</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0.007909090909090909</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>0.007861527729333798</v>
+      <c r="H46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>1.061946902654867e-05</v>
@@ -2462,7 +2903,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>364</v>
@@ -2479,14 +2920,14 @@
       <c r="G47" s="2" t="n">
         <v>7160000</v>
       </c>
-      <c r="H47" s="2" t="n">
-        <v>0.0001778620396475986</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0.0003258911463221072</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>0.0001480291066745086</v>
+      <c r="H47" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>7.424026106465429e-05</v>
@@ -2503,7 +2944,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>204</v>
@@ -2520,14 +2961,14 @@
       <c r="G48" s="2" t="n">
         <v>5768000</v>
       </c>
-      <c r="H48" s="2" t="n">
-        <v>0.0001373952950193532</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0.0002837540662971108</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>0.0001463587712777576</v>
+      <c r="H48" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>4.159021406727829e-05</v>
@@ -2544,7 +2985,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>32</v>
@@ -2561,14 +3002,14 @@
       <c r="G49" s="2" t="n">
         <v>1841000</v>
       </c>
-      <c r="H49" s="2" t="n">
-        <v>4.542060903359138e-05</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>0.0001200131627339773</v>
-      </c>
-      <c r="J49" s="2" t="n">
-        <v>7.45925537003859e-05</v>
+      <c r="H49" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>1.784718349135527e-05</v>
@@ -2585,7 +3026,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2</v>
@@ -2602,14 +3043,14 @@
       <c r="G50" s="2" t="n">
         <v>587000</v>
       </c>
-      <c r="H50" s="2" t="n">
-        <v>5.007122631943941e-06</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>5.155032839468459e-05</v>
-      </c>
-      <c r="J50" s="2" t="n">
-        <v>4.654320576274065e-05</v>
+      <c r="H50" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>4.405286343612335e-06</v>
@@ -2626,7 +3067,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>58756</v>
@@ -2643,14 +3084,14 @@
       <c r="G51" s="4" t="n">
         <v>320897000</v>
       </c>
-      <c r="H51" s="2" t="n">
-        <v>0.0006952878427294778</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0.004385177476383179</v>
-      </c>
-      <c r="J51" s="2" t="n">
-        <v>0.003689889633653701</v>
+      <c r="H51" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>0.0002353789514587999</v>

--- a/consumption_tables/Total energy consumption._              Billion Btu/Solar energy, total consumed._                  Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Solar energy, total consumed._                  Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
   <si>
     <t>StateCode</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>ChangeConsumptionPerCapita</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>0.00017120854399117934%</t>
+  </si>
+  <si>
+    <t>0.000483956050337882%</t>
+  </si>
+  <si>
+    <t>0.0003127475063467027%</t>
   </si>
   <si>
     <t>AL</t>
@@ -1007,7 +1019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,19 +1073,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.7318840579710145</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4050000</v>
+        <v>553000</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4854000</v>
+        <v>738000</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
@@ -1085,13 +1097,13 @@
         <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>3.407407407407408e-05</v>
+        <v>1.808318264014467e-06</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.080758137618459e-05</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>-1.326649269788949e-05</v>
+        <v>4.065040650406504e-06</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>2.256722386392037e-06</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1102,19 +1114,19 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1281</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.09679937548790007</v>
+        <v>0.7318840579710145</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2357000</v>
+        <v>4050000</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2978000</v>
+        <v>4854000</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
@@ -1126,13 +1138,13 @@
         <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>0.0005434874840899448</v>
+        <v>3.407407407407408e-05</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>4.163868368032237e-05</v>
+        <v>2.080758137618459e-05</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>-0.0005018488004096224</v>
+        <v>-1.326649269788949e-05</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1143,37 +1155,37 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>3619</v>
+        <v>1281</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>48215</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>13.32274108869854</v>
+        <v>0.09679937548790007</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3684000</v>
+        <v>2357000</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6818000</v>
+        <v>2978000</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0.000982356134636265</v>
+        <v>0.0005434874840899448</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.007071721912584336</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>0.006089365777948071</v>
+        <v>4.163868368032237e-05</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>-0.0005018488004096224</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1184,37 +1196,37 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>22029</v>
+        <v>3619</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>211763</v>
+        <v>48215</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>9.612919333605701</v>
+        <v>13.32274108869854</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>29960000</v>
+        <v>3684000</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>38994000</v>
+        <v>6818000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>0.0007352803738317757</v>
+        <v>0.000982356134636265</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.005430655998358722</v>
+        <v>0.007071721912584336</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0.004695375624526946</v>
+        <v>0.006089365777948071</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1225,19 +1237,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>154</v>
+        <v>22029</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6269</v>
+        <v>211763</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>40.70779220779221</v>
+        <v>9.612919333605701</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3308000</v>
+        <v>29960000</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5449000</v>
+        <v>38994000</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1249,13 +1261,13 @@
         <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>4.655380894800483e-05</v>
+        <v>0.0007352803738317757</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.001150486327766563</v>
+        <v>0.005430655998358722</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0.001103932518818558</v>
+        <v>0.004695375624526946</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1266,19 +1278,19 @@
         <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2948</v>
+        <v>6269</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44.66666666666666</v>
+        <v>40.70779220779221</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3292000</v>
+        <v>3308000</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3585000</v>
+        <v>5449000</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>33</v>
@@ -1290,13 +1302,13 @@
         <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>2.004860267314702e-05</v>
+        <v>4.655380894800483e-05</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.0008223152022315203</v>
+        <v>0.001150486327766563</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0.0008022665995583733</v>
+        <v>0.001103932518818558</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1307,19 +1319,19 @@
         <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1230</v>
+        <v>2948</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>42.41379310344828</v>
+        <v>44.66666666666666</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>670000</v>
+        <v>3292000</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>944000</v>
+        <v>3585000</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>37</v>
@@ -1331,13 +1343,13 @@
         <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>4.328358208955224e-05</v>
+        <v>2.004860267314702e-05</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.001302966101694915</v>
+        <v>0.0008223152022315203</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0.001259682519605363</v>
+        <v>0.0008022665995583733</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1348,21 +1360,21 @@
         <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>25584</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>30019</v>
+        <v>1230</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.173350531582239</v>
+        <v>42.41379310344828</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>13033000</v>
+        <v>670000</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>20245000</v>
-      </c>
-      <c r="H9" s="4" t="s">
+        <v>944000</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -1371,14 +1383,14 @@
       <c r="J9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="4" t="n">
-        <v>0.001963016956955421</v>
+      <c r="K9" s="2" t="n">
+        <v>4.328358208955224e-05</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.001482785873055075</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>-0.0004802310839003455</v>
+        <v>0.001302966101694915</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0.001259682519605363</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1389,21 +1401,21 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>105</v>
+        <v>25584</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2459</v>
+        <v>30019</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>23.41904761904762</v>
+        <v>1.173350531582239</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6513000</v>
+        <v>13033000</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>10199000</v>
-      </c>
-      <c r="H10" s="2" t="s">
+        <v>20245000</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1412,14 +1424,14 @@
       <c r="J10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <v>1.612160294795025e-05</v>
+      <c r="K10" s="4" t="n">
+        <v>0.001963016956955421</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.0002411020688302775</v>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>0.0002249804658823272</v>
+        <v>0.001482785873055075</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>-0.0004802310839003455</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1430,19 +1442,19 @@
         <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>885</v>
+        <v>105</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>8351</v>
+        <v>2459</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>9.436158192090396</v>
+        <v>23.41904761904762</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1113000</v>
+        <v>6513000</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1425000</v>
+        <v>10199000</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>49</v>
@@ -1454,13 +1466,13 @@
         <v>51</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.0007951482479784367</v>
+        <v>1.612160294795025e-05</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.005860350877192983</v>
+        <v>0.0002411020688302775</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0.005065202629214546</v>
+        <v>0.0002249804658823272</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1471,19 +1483,19 @@
         <v>52</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>9</v>
+        <v>885</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>419</v>
+        <v>8351</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>46.55555555555556</v>
+        <v>9.436158192090396</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2781000</v>
+        <v>1113000</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3122000</v>
+        <v>1425000</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>53</v>
@@ -1495,13 +1507,13 @@
         <v>55</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>3.236245954692557e-06</v>
+        <v>0.0007951482479784367</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.0001342088404868674</v>
+        <v>0.005860350877192983</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0.0001309725945321748</v>
+        <v>0.005065202629214546</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1512,19 +1524,19 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>40.5</v>
+        <v>46.55555555555556</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1012000</v>
+        <v>2781000</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1653000</v>
+        <v>3122000</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>57</v>
@@ -1536,13 +1548,13 @@
         <v>59</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.976284584980237e-06</v>
+        <v>3.236245954692557e-06</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>4.900181488203267e-05</v>
+        <v>0.0001342088404868674</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.702553029705243e-05</v>
+        <v>0.0001309725945321748</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1553,19 +1565,19 @@
         <v>60</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1932</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>36.45283018867924</v>
+        <v>40.5</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>11453000</v>
+        <v>1012000</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>12839000</v>
+        <v>1653000</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>61</v>
@@ -1577,13 +1589,13 @@
         <v>63</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>4.627608486859338e-06</v>
+        <v>1.976284584980237e-06</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0.0001504790092686346</v>
+        <v>4.900181488203267e-05</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0.0001458514007817753</v>
+        <v>4.702553029705243e-05</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1594,19 +1606,19 @@
         <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1713</v>
+        <v>1932</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>131.7692307692308</v>
+        <v>36.45283018867924</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5558000</v>
+        <v>11453000</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6613000</v>
+        <v>12839000</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>65</v>
@@ -1618,13 +1630,13 @@
         <v>67</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>2.338970852824757e-06</v>
+        <v>4.627608486859338e-06</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.0002590352336307274</v>
+        <v>0.0001504790092686346</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0.0002566962627779026</v>
+        <v>0.0001458514007817753</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1635,19 +1647,19 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>87</v>
+        <v>1713</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>2.416666666666667</v>
+        <v>131.7692307692308</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2481000</v>
+        <v>5558000</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2907000</v>
+        <v>6613000</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>69</v>
@@ -1659,13 +1671,13 @@
         <v>71</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.451027811366384e-05</v>
+        <v>2.338970852824757e-06</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.992776057791538e-05</v>
+        <v>0.0002590352336307274</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>1.541748246425153e-05</v>
+        <v>0.0002566962627779026</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1676,19 +1688,19 @@
         <v>72</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>65.66666666666667</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3694000</v>
+        <v>2481000</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4425000</v>
+        <v>2907000</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -1700,13 +1712,13 @@
         <v>75</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>8.121277747698971e-07</v>
+        <v>1.451027811366384e-05</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>4.451977401129944e-05</v>
+        <v>2.992776057791538e-05</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.370764623652954e-05</v>
+        <v>1.541748246425153e-05</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1717,19 +1729,19 @@
         <v>76</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1520</v>
+        <v>197</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>23.75</v>
+        <v>65.66666666666667</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4222000</v>
+        <v>3694000</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4669000</v>
+        <v>4425000</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>77</v>
@@ -1741,13 +1753,13 @@
         <v>79</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.515869256276646e-05</v>
+        <v>8.121277747698971e-07</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0.0003255515099593061</v>
+        <v>4.451977401129944e-05</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0.0003103928173965396</v>
+        <v>4.370764623652954e-05</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1758,19 +1770,19 @@
         <v>80</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>12534</v>
+        <v>1520</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>64.94300518134715</v>
+        <v>23.75</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6023000</v>
+        <v>4222000</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6784000</v>
+        <v>4669000</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>81</v>
@@ -1782,13 +1794,13 @@
         <v>83</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>3.204383197741989e-05</v>
+        <v>1.515869256276646e-05</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.001847582547169811</v>
+        <v>0.0003255515099593061</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0.001815538715192391</v>
+        <v>0.0003103928173965396</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1799,19 +1811,19 @@
         <v>84</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>4375</v>
+        <v>12534</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>106.7073170731707</v>
+        <v>64.94300518134715</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4800000</v>
+        <v>6023000</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5995000</v>
+        <v>6784000</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>85</v>
@@ -1823,13 +1835,13 @@
         <v>87</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>8.541666666666666e-06</v>
+        <v>3.204383197741989e-05</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.0007297748123436197</v>
+        <v>0.001847582547169811</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0.000721233145676953</v>
+        <v>0.001815538715192391</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1840,19 +1852,19 @@
         <v>88</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>322</v>
+        <v>4375</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>3.788235294117647</v>
+        <v>106.7073170731707</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1232000</v>
+        <v>4800000</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1329000</v>
+        <v>5995000</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>89</v>
@@ -1864,13 +1876,13 @@
         <v>91</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>6.89935064935065e-05</v>
+        <v>8.541666666666666e-06</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.0002422874341610233</v>
+        <v>0.0007297748123436197</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0.0001732939276675168</v>
+        <v>0.000721233145676953</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1881,19 +1893,19 @@
         <v>92</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>851</v>
+        <v>322</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>3.765486725663717</v>
+        <v>3.788235294117647</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9311000</v>
+        <v>1232000</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>9918000</v>
+        <v>1329000</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>93</v>
@@ -1905,13 +1917,13 @@
         <v>95</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>2.427236601868757e-05</v>
+        <v>6.89935064935065e-05</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>8.58035894333535e-05</v>
+        <v>0.0002422874341610233</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>6.153122341466592e-05</v>
+        <v>0.0001732939276675168</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1922,19 +1934,19 @@
         <v>96</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>338</v>
+        <v>226</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>472</v>
+        <v>851</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1.396449704142012</v>
+        <v>3.765486725663717</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4390000</v>
+        <v>9311000</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5482000</v>
+        <v>9918000</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>97</v>
@@ -1946,13 +1958,13 @@
         <v>99</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>7.699316628701595e-05</v>
+        <v>2.427236601868757e-05</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>8.609996351696461e-05</v>
+        <v>8.58035894333535e-05</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>9.10679722994866e-06</v>
+        <v>6.153122341466592e-05</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1963,19 +1975,19 @@
         <v>100</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>163</v>
+        <v>338</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1542</v>
+        <v>472</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>9.460122699386503</v>
+        <v>1.396449704142012</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5129000</v>
+        <v>4390000</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6076000</v>
+        <v>5482000</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>101</v>
@@ -1987,13 +1999,13 @@
         <v>103</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>3.178007408851628e-05</v>
+        <v>7.699316628701595e-05</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.0002537853851217907</v>
+        <v>8.609996351696461e-05</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0.0002220053110332744</v>
+        <v>9.10679722994866e-06</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2004,19 +2016,19 @@
         <v>104</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>29</v>
+        <v>1542</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>7.25</v>
+        <v>9.460122699386503</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2579000</v>
+        <v>5129000</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2989000</v>
+        <v>6076000</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>105</v>
@@ -2028,13 +2040,13 @@
         <v>107</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.550988755331524e-06</v>
+        <v>3.178007408851628e-05</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>9.702241552358649e-06</v>
+        <v>0.0002537853851217907</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>8.151252797027125e-06</v>
+        <v>0.0002220053110332744</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2045,19 +2057,19 @@
         <v>108</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>85</v>
+        <v>7.25</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>800000</v>
+        <v>2579000</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1032000</v>
+        <v>2989000</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>109</v>
@@ -2069,13 +2081,13 @@
         <v>111</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.25e-06</v>
+        <v>1.550988755331524e-06</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>8.236434108527131e-05</v>
+        <v>9.702241552358649e-06</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>8.111434108527131e-05</v>
+        <v>8.151252797027125e-06</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2086,19 +2098,19 @@
         <v>112</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>13869</v>
+        <v>85</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>86.14285714285714</v>
+        <v>85</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6664000</v>
+        <v>800000</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>10035000</v>
+        <v>1032000</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>113</v>
@@ -2110,13 +2122,13 @@
         <v>115</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>2.415966386554622e-05</v>
+        <v>1.25e-06</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0.001382062780269058</v>
+        <v>8.236434108527131e-05</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>0.001357903116403512</v>
+        <v>8.111434108527131e-05</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2127,37 +2139,37 @@
         <v>116</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E28" s="4" t="s">
+        <v>13869</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>86.14285714285714</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>6664000</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>10035000</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="2" t="n">
-        <v>638000</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>757000</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>119</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>0</v>
+        <v>2.415966386554622e-05</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>9.247027741083224e-06</v>
+        <v>0.001382062780269058</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>9.247027741083224e-06</v>
+        <v>0.001357903116403512</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2168,37 +2180,37 @@
         <v>120</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>4.555555555555555</v>
+        <v>7</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1221000</v>
+        <v>638000</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2884000</v>
+        <v>757000</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>123</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>7.371007371007371e-06</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.421636615811373e-05</v>
+        <v>9.247027741083224e-06</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>6.84535878710636e-06</v>
+        <v>9.247027741083224e-06</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2209,19 +2221,19 @@
         <v>124</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>10.81481481481481</v>
+        <v>4.555555555555555</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1112000</v>
+        <v>1221000</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1330000</v>
+        <v>2884000</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>125</v>
@@ -2233,13 +2245,13 @@
         <v>127</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>2.428057553956835e-05</v>
+        <v>7.371007371007371e-06</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0.0002195488721804511</v>
+        <v>1.421636615811373e-05</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>0.0001952682966408828</v>
+        <v>6.84535878710636e-06</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2250,19 +2262,19 @@
         <v>128</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>399</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>20958</v>
+        <v>292</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>52.52631578947368</v>
+        <v>10.81481481481481</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7763000</v>
+        <v>1112000</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>8935000</v>
+        <v>1330000</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>129</v>
@@ -2274,13 +2286,13 @@
         <v>131</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>5.139765554553652e-05</v>
+        <v>2.428057553956835e-05</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0.002345607162842753</v>
+        <v>0.0002195488721804511</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>0.002294209507297217</v>
+        <v>0.0001952682966408828</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2291,19 +2303,19 @@
         <v>132</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>573</v>
+        <v>399</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>7256</v>
+        <v>20958</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>12.66317626527051</v>
+        <v>52.52631578947368</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1522000</v>
+        <v>7763000</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2080000</v>
+        <v>8935000</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>133</v>
@@ -2315,13 +2327,13 @@
         <v>135</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>0.0003764783180026281</v>
+        <v>5.139765554553652e-05</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0.003488461538461538</v>
+        <v>0.002345607162842753</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0.00311198322045891</v>
+        <v>0.002294209507297217</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2332,19 +2344,19 @@
         <v>136</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>62</v>
+        <v>573</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>18212</v>
+        <v>7256</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>293.741935483871</v>
+        <v>12.66317626527051</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1582000</v>
+        <v>1522000</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1894000</v>
+        <v>2080000</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>137</v>
@@ -2356,13 +2368,13 @@
         <v>139</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>3.919089759797724e-05</v>
-      </c>
-      <c r="L33" s="4" t="n">
-        <v>0.009615628299894404</v>
-      </c>
-      <c r="M33" s="4" t="n">
-        <v>0.009576437402296427</v>
+        <v>0.0003764783180026281</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>0.003488461538461538</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>0.00311198322045891</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2373,19 +2385,19 @@
         <v>140</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>276</v>
+        <v>62</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>7723</v>
+        <v>18212</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>27.98188405797102</v>
+        <v>293.741935483871</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>18021000</v>
+        <v>1582000</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>19747000</v>
+        <v>1894000</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>141</v>
@@ -2397,13 +2409,13 @@
         <v>143</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.531546529049442e-05</v>
-      </c>
-      <c r="L34" s="2" t="n">
-        <v>0.000391097381880792</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>0.0003757819165902976</v>
+        <v>3.919089759797724e-05</v>
+      </c>
+      <c r="L34" s="4" t="n">
+        <v>0.009615628299894404</v>
+      </c>
+      <c r="M34" s="4" t="n">
+        <v>0.009576437402296427</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2414,19 +2426,19 @@
         <v>144</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1677</v>
+        <v>7723</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>88.26315789473684</v>
+        <v>27.98188405797102</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>10864000</v>
+        <v>18021000</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>11605000</v>
+        <v>19747000</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -2438,13 +2450,13 @@
         <v>147</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.748895434462445e-06</v>
+        <v>1.531546529049442e-05</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0.0001445066781559673</v>
+        <v>0.000391097381880792</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>0.0001427577827215048</v>
+        <v>0.0003757819165902976</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2455,19 +2467,19 @@
         <v>148</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>71</v>
+        <v>1677</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.797752808988764</v>
+        <v>88.26315789473684</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3149000</v>
+        <v>10864000</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3907000</v>
+        <v>11605000</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>149</v>
@@ -2479,13 +2491,13 @@
         <v>151</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>2.826294061606859e-05</v>
+        <v>1.748895434462445e-06</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.817251087791144e-05</v>
-      </c>
-      <c r="M36" s="3" t="n">
-        <v>-1.009042973815715e-05</v>
+        <v>0.0001445066781559673</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>0.0001427577827215048</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2496,19 +2508,19 @@
         <v>152</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>2424</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>7.719745222929936</v>
+        <v>0.797752808988764</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2860000</v>
+        <v>3149000</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4025000</v>
+        <v>3907000</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>153</v>
@@ -2520,13 +2532,13 @@
         <v>155</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>0.0001097902097902098</v>
+        <v>2.826294061606859e-05</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0.0006022360248447205</v>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>0.0004924458150545107</v>
+        <v>1.817251087791144e-05</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>-1.009042973815715e-05</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2537,19 +2549,19 @@
         <v>156</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>445</v>
+        <v>314</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>3755</v>
+        <v>2424</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>8.438202247191011</v>
+        <v>7.719745222929936</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>11903000</v>
+        <v>2860000</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>12792000</v>
+        <v>4025000</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>157</v>
@@ -2561,13 +2573,13 @@
         <v>159</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>3.738553305889272e-05</v>
+        <v>0.0001097902097902098</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0.0002935428392745466</v>
+        <v>0.0006022360248447205</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>0.0002561573062156539</v>
+        <v>0.0004924458150545107</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2578,19 +2590,19 @@
         <v>160</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>38</v>
+        <v>445</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>297</v>
+        <v>3755</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>7.815789473684211</v>
+        <v>8.438202247191011</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1006000</v>
+        <v>11903000</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1056000</v>
+        <v>12792000</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>161</v>
@@ -2602,13 +2614,13 @@
         <v>163</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>3.777335984095427e-05</v>
+        <v>3.738553305889272e-05</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0.00028125</v>
+        <v>0.0002935428392745466</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>0.0002434766401590457</v>
+        <v>0.0002561573062156539</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2619,19 +2631,19 @@
         <v>164</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>140</v>
+        <v>297</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>9.333333333333334</v>
+        <v>7.815789473684211</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>3501000</v>
+        <v>1006000</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4895000</v>
+        <v>1056000</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>165</v>
@@ -2643,13 +2655,13 @@
         <v>167</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>4.284490145672665e-06</v>
+        <v>3.777335984095427e-05</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>2.860061287027579e-05</v>
+        <v>0.00028125</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>2.431612272460313e-05</v>
+        <v>0.0002434766401590457</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2660,37 +2672,37 @@
         <v>168</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>9.333333333333334</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>697000</v>
+        <v>3501000</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>858000</v>
+        <v>4895000</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>0</v>
+        <v>4.284490145672665e-06</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.165501165501166e-05</v>
+        <v>2.860061287027579e-05</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>1.165501165501166e-05</v>
+        <v>2.431612272460313e-05</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2698,40 +2710,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>1293</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>21.55</v>
+        <v>10</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>4894000</v>
+        <v>697000</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6595000</v>
+        <v>858000</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>173</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.225991009399264e-05</v>
+        <v>0</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0.0001960576194086429</v>
+        <v>1.165501165501166e-05</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>0.0001837977093146503</v>
+        <v>1.165501165501166e-05</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2742,19 +2754,19 @@
         <v>174</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>374</v>
+        <v>60</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>6395</v>
+        <v>1293</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>17.09893048128342</v>
+        <v>21.55</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>17057000</v>
+        <v>4894000</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>27430000</v>
+        <v>6595000</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>175</v>
@@ -2766,36 +2778,36 @@
         <v>177</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>2.192648179632995e-05</v>
+        <v>1.225991009399264e-05</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0.0002331388990156763</v>
+        <v>0.0001960576194086429</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>0.0002112124172193463</v>
+        <v>0.0001837977093146503</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>40</v>
+        <v>374</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>980</v>
+        <v>6395</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>24.5</v>
+        <v>17.09893048128342</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>1731000</v>
+        <v>17057000</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2991000</v>
+        <v>27430000</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>179</v>
@@ -2807,13 +2819,13 @@
         <v>181</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>2.310803004043905e-05</v>
+        <v>2.192648179632995e-05</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0.0003276496155132063</v>
+        <v>0.0002331388990156763</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>0.0003045415854727672</v>
+        <v>0.0002112124172193463</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2824,19 +2836,19 @@
         <v>182</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>801</v>
+        <v>980</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>6.307086614173229</v>
+        <v>24.5</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>6217000</v>
+        <v>1731000</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>8368000</v>
+        <v>2991000</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>183</v>
@@ -2848,13 +2860,13 @@
         <v>185</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>2.042785909602702e-05</v>
+        <v>2.310803004043905e-05</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>9.572179732313575e-05</v>
+        <v>0.0003276496155132063</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>7.529393822710873e-05</v>
+        <v>0.0003045415854727672</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2865,19 +2877,19 @@
         <v>186</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>1044</v>
+        <v>801</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>174</v>
+        <v>6.307086614173229</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>565000</v>
+        <v>6217000</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>626000</v>
+        <v>8368000</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>187</v>
@@ -2889,13 +2901,13 @@
         <v>189</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>1.061946902654867e-05</v>
+        <v>2.042785909602702e-05</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.001667731629392971</v>
+        <v>9.572179732313575e-05</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>0.001657112160366423</v>
+        <v>7.529393822710873e-05</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2906,19 +2918,19 @@
         <v>190</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>364</v>
+        <v>6</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>648</v>
+        <v>1044</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1.78021978021978</v>
+        <v>174</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>4903000</v>
+        <v>565000</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>7160000</v>
+        <v>626000</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>191</v>
@@ -2930,13 +2942,13 @@
         <v>193</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>7.424026106465429e-05</v>
+        <v>1.061946902654867e-05</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>9.050279329608939e-05</v>
+        <v>0.001667731629392971</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>1.62625322314351e-05</v>
+        <v>0.001657112160366423</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2947,19 +2959,19 @@
         <v>194</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>204</v>
+        <v>364</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>504</v>
+        <v>648</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>2.470588235294118</v>
+        <v>1.78021978021978</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>4905000</v>
+        <v>4903000</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>5768000</v>
+        <v>7160000</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>195</v>
@@ -2971,13 +2983,13 @@
         <v>197</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>4.159021406727829e-05</v>
+        <v>7.424026106465429e-05</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>8.737864077669902e-05</v>
+        <v>9.050279329608939e-05</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>4.578842670942074e-05</v>
+        <v>1.62625322314351e-05</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2988,19 +3000,19 @@
         <v>198</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>93</v>
+        <v>504</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>2.90625</v>
+        <v>2.470588235294118</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1793000</v>
+        <v>4905000</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1841000</v>
+        <v>5768000</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>199</v>
@@ -3012,36 +3024,36 @@
         <v>201</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>1.784718349135527e-05</v>
+        <v>4.159021406727829e-05</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>5.051602390005432e-05</v>
+        <v>8.737864077669902e-05</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>3.266884040869905e-05</v>
+        <v>4.578842670942074e-05</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>13.5</v>
+        <v>2.90625</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>454000</v>
+        <v>1793000</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>587000</v>
+        <v>1841000</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>203</v>
@@ -3053,36 +3065,36 @@
         <v>205</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>4.405286343612335e-06</v>
+        <v>1.784718349135527e-05</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>4.599659284497444e-05</v>
+        <v>5.051602390005432e-05</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>4.159130650136211e-05</v>
+        <v>3.266884040869905e-05</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C51" s="4" t="n">
-        <v>58756</v>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>426463</v>
+      <c r="C51" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>27</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>7.258203417523316</v>
-      </c>
-      <c r="F51" s="4" t="n">
-        <v>249623000</v>
-      </c>
-      <c r="G51" s="4" t="n">
-        <v>320897000</v>
+        <v>13.5</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>454000</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>587000</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>207</v>
@@ -3094,12 +3106,53 @@
         <v>209</v>
       </c>
       <c r="K51" s="2" t="n">
+        <v>4.405286343612335e-06</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>4.599659284497444e-05</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>4.159130650136211e-05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>58756</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>426463</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>7.258203417523316</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>249623000</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>320897000</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K52" s="2" t="n">
         <v>0.0002353789514587999</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L52" s="2" t="n">
         <v>0.001328971601479602</v>
       </c>
-      <c r="M51" s="2" t="n">
+      <c r="M52" s="2" t="n">
         <v>0.001093592650020803</v>
       </c>
     </row>
